--- a/data/trans_bre/P23_8_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_8_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>82,14%</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>57,13%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-8,72%</t>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-9,89%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-6,44%</t>
         </is>
       </c>
     </row>
@@ -642,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 10,19</t>
+          <t>-9,73; 10,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 11,49</t>
+          <t>0,0; 14,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 7,73</t>
+          <t>-15,74; 7,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,7; 5,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>-13,44</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>351,33%</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-66,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>137,02%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14,09%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 13,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 2,93</t>
+          <t>-42,42; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 5,76</t>
+          <t>1,41; 12,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,6; 7,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -746,6 +792,16 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-9,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-26,75%</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-36,14%</t>
+          <t>-52,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-36,68%</t>
+          <t>206,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-70,3%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-72,88%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 4,06</t>
+          <t>-11,69; 2,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 3,94</t>
+          <t>-1,52; 9,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 2,76</t>
+          <t>-20,13; -0,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-79,43; 108,42</t>
+          <t>-17,83; -0,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-100,0; 192,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-86,21; 115,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-93,4; 15,5</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>187,99%</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1154,8%</t>
+          <t>320,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>261,06%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>463,08%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>75,23%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 9,0</t>
+          <t>0,56; 13,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 12,89</t>
+          <t>4,23; 16,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 9,35</t>
+          <t>0,89; 12,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,65; —</t>
+          <t>-2,46; 15,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,9; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,44; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-27,96; 381,34</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-7,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>11,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,06%</t>
+          <t>-55,72%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>158,56%</t>
+          <t>-64,3%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>64,48%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>186,45%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 7,35</t>
+          <t>-13,48; 3,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 7,8</t>
+          <t>-33,66; 3,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 16,05</t>
+          <t>-5,04; 14,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 176,71</t>
+          <t>-0,01; 25,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-87,95; 323,84</t>
+          <t>-100,0; 203,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 723,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-78,75; 806,49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-19,02; 1279,31</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>-11,64</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-28,36%</t>
+          <t>33,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,56%</t>
+          <t>22,87%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>140,02%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-52,89%</t>
         </is>
       </c>
     </row>
@@ -1042,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 14,34</t>
+          <t>-8,43; 11,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 5,09</t>
+          <t>-4,74; 9,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 5,66</t>
+          <t>-3,57; 11,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,97; 366,31</t>
+          <t>-30,07; 5,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1067,7 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,83; 197,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-93,25; 78,48</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>37,65%</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>-5,99%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>24,7%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,86%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 4,87</t>
+          <t>-2,45; 3,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 3,53</t>
+          <t>-9,24; 3,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,84</t>
+          <t>-2,4; 4,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 127,89</t>
+          <t>-3,72; 4,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-52,46; 160,95</t>
+          <t>-41,77; 132,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 112,92</t>
+          <t>-74,7; 237,4</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-38,98; 146,57</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-37,81; 79,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P23_8_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_8_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,165 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,72</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>57,13%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-9,89%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-6,44%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.263566411603999</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.879337846541578</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.2963462287145446</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.1119265702073574</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>2.16102909929782</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.06224836679827844</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.05076012256210762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,73; 10,17</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 14,41</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,74; 7,06</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-8,7; 5,31</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.686958093214061</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-14.36677018750598</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-7.180733641334237</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>25.73558609853349</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.54736176986122</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.06596868805551</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.469196432770788</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-13,44</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,83</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>14,09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-42,42; 0,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 12,52</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,6; 7,03</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-11.87371012498182</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.698118477037093</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.174260009921855</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.05345232220085222</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,38</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,39</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-9,53</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-6,54</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-52,49%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>206,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-70,3%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-72,88%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="n">
+        <v>-39.65673636724645</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.40458336888638</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.89048557985874</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,69; 2,42</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,52; 9,65</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-20,13; -0,62</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-17,83; -0,1</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 192,8</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-93,4; 15,5</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.29332092606658</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.296499713328785</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +793,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,39</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,86</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,84</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,24</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>320,45%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>463,08%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>75,23%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.508841412682384</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.323144364656308</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-8.684908110461109</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-6.572819931056166</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.4245313121953385</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>3.197313228092829</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.6529892248384516</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.7134019309739956</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 13,8</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4,23; 16,35</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 12,37</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 15,45</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-20,9; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-27,96; 381,34</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.4219870076226</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.0600539175996604</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-19.9268909397859</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-18.53959240912539</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.9291828710413043</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.506038594795056</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.76812821677429</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.4483464972851759</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.0432106533365816</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.561391885365242</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.2899740995161149</v>
+      </c>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-4,82</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-7,56</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,35</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11,42</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-55,72%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-64,3%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>64,48%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>186,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,48; 3,16</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-33,66; 3,06</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; 14,2</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 25,77</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 203,48</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-78,75; 806,49</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-19,02; 1279,31</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>7.851362569686184</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.825192470372372</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.74780304255644</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.590746868240823</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.765977573077213</v>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>4.67448711571601</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.8321134678847247</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,49</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-11,64</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>33,14%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>22,87%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>140,02%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-52,89%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.536915091578614</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>4.368434402127425</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.8857710325803064</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.952684959217091</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1002499308073896</v>
+      </c>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="n">
+        <v>-0.2549205048003447</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-8,43; 11,91</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 9,42</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 11,73</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-30,07; 5,94</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-93,25; 78,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>15.54118815948559</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>16.12632994473412</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.16848453682062</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>15.95293308726023</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="n">
+        <v>4.066786530706305</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +977,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>14,8%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-5,99%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>24,7%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>3,86%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-3.79600893884836</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-7.971886257285822</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>4.279374758043346</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>9.836370966854005</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.4578111939879579</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.6695358958794652</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.8786020444109423</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>1.609287420222817</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 3,71</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-9,24; 3,97</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 4,34</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; 4,48</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-41,77; 132,97</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-74,7; 237,4</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-38,98; 146,57</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-37,81; 79,52</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-12.40934405512661</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-35.1483170025295</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-3.873073269293945</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.8824443504453948</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="n">
+        <v>-0.7179893105730194</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.2410462985979203</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.954300164373046</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.758651069571894</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>16.88559684761572</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>22.96099820946275</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>2.816140073377605</v>
+      </c>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="n">
+        <v>10.24146538164632</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>11.98695882324367</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>2.308029003346684</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1.52728100742768</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>3.145479906738628</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-10.82915324509944</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.5073917600331731</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.6465349417711246</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>1.247615845471682</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.4731046398262518</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-6.746791843629876</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-4.672514482980054</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-3.963772835759209</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-29.03296787459771</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="n">
+        <v>-0.9233311329410658</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>13.35762979742685</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>14.33587877956745</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>11.22280249823613</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>9.411452827248322</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="n">
+        <v>1.198958449685867</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.799320390384595</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5435169697624989</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.383819780059223</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3276315205264516</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.4709298167902224</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.1180477072473574</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.3119950468729272</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.04207644161743487</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.480386622067681</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.981184794683171</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.254454927532992</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-3.665608917029613</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.3112260991705468</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.6744768071239052</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.3774356071728107</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.3929189060209903</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.203824681301279</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.661776618143911</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.687808086302119</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>4.897263830813061</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.971604448688117</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>3.198148938426538</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1.588383063276804</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.9146875372574294</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1259,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
